--- a/report.xlsx
+++ b/report.xlsx
@@ -43,25 +43,25 @@
     <t>Views</t>
   </si>
   <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>08ef48a3-46fd-4134-b716-6b35c2533dce</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
     <t>Iphone 14 pro</t>
   </si>
   <si>
-    <t>0fef1431-ac16-42df-9332-9ee04f09e71a</t>
+    <t>288d26f0-a8d1-4724-93d5-bac26a850d44</t>
   </si>
   <si>
     <t>80000.00</t>
   </si>
   <si>
     <t>Iphone-14-pro</t>
-  </si>
-  <si>
-    <t>PS5</t>
-  </si>
-  <si>
-    <t>06ea3d44-928a-410a-a636-79aa2d3ab5b2</t>
-  </si>
-  <si>
-    <t>50000.00</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -414,45 +414,45 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
